--- a/raport_experymenty.xlsx
+++ b/raport_experymenty.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertostoja-lniski/Desktop/STUDIA/magisterka/SPZC/logging_app_java/project_decoy_mtd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ED3106-61E1-274C-AE71-44775A8E9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F0D58-E9A3-F64A-8DDF-F49D7FAF0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41000" yWindow="-2080" windowWidth="28040" windowHeight="17300" xr2:uid="{77322C9F-260E-FC4D-9DBB-9CB0003B26CB}"/>
+    <workbookView xWindow="50420" yWindow="-6500" windowWidth="27060" windowHeight="25020" activeTab="2" xr2:uid="{77322C9F-260E-FC4D-9DBB-9CB0003B26CB}"/>
   </bookViews>
   <sheets>
     <sheet name="czas_odpowiedzi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="zmiana_ip_a_ruch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="latency_test_result" localSheetId="2">zmiana_ip_a_ruch!$A$1:$D$119</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +38,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{9C026382-DF88-6541-BA4A-656A9AFB633D}" name="latency_test_result" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/robertostoja-lniski/Desktop/STUDIA/magisterka/SPZC/logging_app_java/project_decoy_mtd/test/latency_test_result.txt" decimal="," thousands=" ">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Liczba zgłoszeń</t>
   </si>
@@ -43,6 +63,369 @@
   </si>
   <si>
     <t>Czas odpowiedzi real [s]</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:05.444089</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:07.767100</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:10.073910</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:12.386481</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:14.691023</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:16.994633</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:19.300521</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:21.821131</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:24.115706</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:26.411455</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:28.697149</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:31.003381</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:33.300286</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:35.610081</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:37.906006</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:40.204200</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:42.494801</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:44.792169</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:47.091032</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:49.387398</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:51.683483</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:53.978197</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:56.278272</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:24:58.577181</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:00.873985</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:03.167072</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:05.459678</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:07.752667</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:10.081365</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:12.378450</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:14.677907</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:16.976317</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:19.289266</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:21.596848</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:23.892982</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:26.195085</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:28.490380</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:30.786323</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:33.088079</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:35.383899</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:37.684110</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:39.994902</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:42.283491</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:44.581277</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:46.877015</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:49.176224</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:51.469145</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:53.762879</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:56.058547</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:25:58.373178</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:00.663986</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:02.953197</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:05.240765</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:07.540337</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:09.829306</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:12.122726</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:14.420182</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:16.708271</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:18.998949</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:21.295272</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:23.670960</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:25.959591</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:28.250256</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:30.539089</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:32.832049</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:35.208745</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:37.507062</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:39.807197</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:42.098467</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:44.386501</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:46.678179</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:48.970522</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:51.263934</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:53.561783</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:55.912471</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:26:58.205553</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:00.494875</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:02.788935</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:05.071341</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:07.354067</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:09.640586</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:11.928869</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:14.221977</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:16.519484</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:18.810486</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:21.097325</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:23.389602</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:25.682166</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:27.986148</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:30.271380</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:32.560026</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:34.852123</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:37.153944</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:39.447173</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:41.730754</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:44.013949</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:46.305780</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:48.591148</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:50.882889</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:53.168135</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:55.464139</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:27:57.767953</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:00.059565</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:02.347747</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:04.631120</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:06.917765</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:09.200620</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:11.495970</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:13.783578</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:16.069638</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:18.363865</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:20.650017</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:22.940483</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:25.263859</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:27.556021</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:29.853542</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:32.135593</t>
+  </si>
+  <si>
+    <t>2021-06-13 16:28:34.435808</t>
+  </si>
+  <si>
+    <t>Czas od początku pomiaru w sekundach</t>
+  </si>
+  <si>
+    <t>Czas odpowiedzi</t>
+  </si>
+  <si>
+    <t>Liczba odrzuconych pakietów</t>
   </si>
 </sst>
 </file>
@@ -50,7 +433,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +466,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,64 +597,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,64 +768,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,6 +903,738 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAFA-D14F-9786-138E4B38B97D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1371335792"/>
+        <c:axId val="1371294432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1371335792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> zgłoszeń w setkach</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371294432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1371294432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Czas odpowiedzi w sekundach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371335792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> czasu odpowiedzi maszyn decoy i real</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>czas_odpowiedzi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas odpowiedzi decoy [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>czas_odpowiedzi!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>czas_odpowiedzi!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.1163158416748002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9249000549316398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.120968580245971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157939767837524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.195860767364501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26248741149902299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28665704727172803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32378921508788999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36811561584472602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.437054538726806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45349740982055597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50573754310607899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54352502822875903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62551765441894502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61625599861144997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76941118240356399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70564579963684004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83785519599914504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83973259925842203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9605096817016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08EA-A34D-B1F7-0D2D23CF4440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>czas_odpowiedzi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas odpowiedzi real [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>czas_odpowiedzi!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>czas_odpowiedzi!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18796377182006799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26747159957885702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38966016769409101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.492433404922485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60993585586547805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72389497756957999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82020020484924305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95987176895141602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0760891914367601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1985817909240699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3290048122406</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.42698979377746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.54377655982971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6103026390075601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7854631900787299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9381752490997299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0219078063964799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1604189395904498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.24588456153869</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.37778115272521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08EA-A34D-B1F7-0D2D23CF4440}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -833,7 +1948,2279 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Czas odpowiedzi na zgłoszenia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> podczas randomizacji IP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>zmiana_ip_a_ruch!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas odpowiedzi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>zmiana_ip_a_ruch!$B$2:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>zmiana_ip_a_ruch!$C$2:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>6.3869571685790993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3218784332275305E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0190200805664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1803627014160097E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0300207138061501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9645795822143501E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0204601287841698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10268063545227001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7733583450317302E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8012342453002901E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.65693855285644E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9707832336425702E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8716249465942297E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.06008052825927E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7973051071166903E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.81156253814697E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7112026214599598E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8132791519164999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8909034729003898E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8014011383056598E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.80451965332031E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.72038173675537E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8905410766601503E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8013582229614197E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8202600479125899E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7462978363037098E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7208967208862302E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6858396530151303E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4511585235595706E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7930612564086902E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8818197250366203E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8328771591186497E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0976171493530198E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.97187519073486E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7670164108276301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9112596511840802E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7571983337402301E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7824611663818297E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9202957153320301E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8393812179565401E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.85800170898437E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0466146469116203E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.66770076751709E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7821607589721602E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7697391510009702E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8266592025756798E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.8052015304565399E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7008600234985302E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.80940723419189E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1187410354614197E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6991815567016602E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6704568862915E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6566190719604399E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.8568572998046797E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6243181228637598E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7135248184204103E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8059215545654297E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6447362899780203E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7489967346191398E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7962226867675701E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4536800384521401E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6851768493652297E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6577062606811501E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.6772232055664E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6937408447265601E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.3780822753906197E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8767747879028297E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8611440658569297E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.6736373901367099E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6162405014037999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.7339954376220699E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.68049430847168E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.7609844207763598E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.7858991622924801E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9391202926635698E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.8016586303710899E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.69029331207275E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.74784278869628E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5932950973510698E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5521821975707999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.6231355667114201E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6167364120483398E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.7709217071533203E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.8015584945678697E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.7008647918701097E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6610441207885699E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7704830169677701E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.7939004898071203E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.97803592681884E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5740642547607397E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.6495189666747998E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.79027652740478E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9363985061645502E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.7941627502441397E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.62039852142334E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.5509614944457997E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.7617616653442297E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.6353998184204099E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.7659626007080002E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.5989408493041903E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.7831382751464801E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.94867706298828E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.7218599319457997E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.6413984298705998E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6063795089721598E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.6041765213012698E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.5992031097412097E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.7275962829589799E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.61123847961425E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6416368484497E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7441568374633697E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.6122827529907202E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.7156610488891597E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.3987779617309504E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.7284641265869102E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.8221578598022398E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.5915212631225501E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.9080410003662098E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BFE-D747-B0E5-38C82FA67FE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1425790112"/>
+        <c:axId val="1214597408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1425790112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214597408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214597408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425790112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Czas odpowiedzi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> na zgłoszenia podczas randomizacji IP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>zmiana_ip_a_ruch!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas odpowiedzi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>zmiana_ip_a_ruch!$B$2:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>zmiana_ip_a_ruch!$C$2:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>6.3869571685790993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3218784332275305E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0190200805664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1803627014160097E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0300207138061501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9645795822143501E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0204601287841698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10268063545227001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7733583450317302E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8012342453002901E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.65693855285644E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9707832336425702E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8716249465942297E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.06008052825927E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7973051071166903E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.81156253814697E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7112026214599598E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8132791519164999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8909034729003898E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8014011383056598E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.80451965332031E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.72038173675537E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8905410766601503E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8013582229614197E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8202600479125899E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7462978363037098E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7208967208862302E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6858396530151303E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4511585235595706E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7930612564086902E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8818197250366203E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8328771591186497E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0976171493530198E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.97187519073486E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7670164108276301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9112596511840802E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7571983337402301E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7824611663818297E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9202957153320301E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8393812179565401E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.85800170898437E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0466146469116203E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.66770076751709E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7821607589721602E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7697391510009702E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8266592025756798E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.8052015304565399E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7008600234985302E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.80940723419189E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1187410354614197E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6991815567016602E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6704568862915E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6566190719604399E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.8568572998046797E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6243181228637598E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7135248184204103E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8059215545654297E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6447362899780203E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7489967346191398E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7962226867675701E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4536800384521401E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6851768493652297E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6577062606811501E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.6772232055664E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6937408447265601E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.3780822753906197E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8767747879028297E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8611440658569297E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.6736373901367099E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6162405014037999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.7339954376220699E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.68049430847168E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.7609844207763598E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.7858991622924801E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9391202926635698E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.8016586303710899E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.69029331207275E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.74784278869628E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5932950973510698E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5521821975707999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.6231355667114201E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6167364120483398E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.7709217071533203E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.8015584945678697E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.7008647918701097E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6610441207885699E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7704830169677701E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.7939004898071203E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.97803592681884E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5740642547607397E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.6495189666747998E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.79027652740478E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9363985061645502E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.7941627502441397E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.62039852142334E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.5509614944457997E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.7617616653442297E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.6353998184204099E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.7659626007080002E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.5989408493041903E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.7831382751464801E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.94867706298828E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.7218599319457997E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.6413984298705998E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6063795089721598E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.6041765213012698E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.5992031097412097E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.7275962829589799E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.61123847961425E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6416368484497E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7441568374633697E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.6122827529907202E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.7156610488891597E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.3987779617309504E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.7284641265869102E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.8221578598022398E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.5915212631225501E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.9080410003662098E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665E-A147-B403-1AB98F91F692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="981089536"/>
+        <c:axId val="980936576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="981089536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liczba sekund od początku pomiaru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980936576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="980936576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Czas odpowiedzi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> w sekundach</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981089536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1389,20 +4776,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1428,6 +6363,295 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D642FF0-BE53-484F-A8B3-E63E618DB8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30FF049-2804-8646-A53E-ADFB92FCAD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9E51BF-CEAD-5E41-8CE5-429B39F06903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4" descr="dsadsd&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB78265-14F6-3245-8FDD-6A5689AA61C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9042400" y="1841500"/>
+          <a:ext cx="25400" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7" descr="dsadsd&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFCC700-DB33-284D-A835-29549B3AB494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10299700" y="1828800"/>
+          <a:ext cx="25400" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8" descr="dsadsd&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022580F0-BF8E-D14F-B7B9-96351CCD8FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14897100" y="1841500"/>
+          <a:ext cx="25400" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="latency_test_result" connectionId="1" xr16:uid="{0A3AA9B8-1B57-4644-872E-5090A11BFB75}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,8 +6953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5314382A-9D42-7845-95DC-1024B429EB67}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1753,7 +6977,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>4.1163158416748002E-2</v>
@@ -1764,7 +6988,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>7.9249000549316398E-2</v>
@@ -1775,7 +6999,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.120968580245971</v>
@@ -1786,7 +7010,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.157939767837524</v>
@@ -1797,7 +7021,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.195860767364501</v>
@@ -1808,7 +7032,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.26248741149902299</v>
@@ -1819,7 +7043,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.28665704727172803</v>
@@ -1830,7 +7054,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.32378921508788999</v>
@@ -1841,7 +7065,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.36811561584472602</v>
@@ -1852,7 +7076,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.437054538726806</v>
@@ -1863,7 +7087,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0.45349740982055597</v>
@@ -1874,7 +7098,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.50573754310607899</v>
@@ -1885,7 +7109,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1300</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0.54352502822875903</v>
@@ -1896,7 +7120,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1400</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0.62551765441894502</v>
@@ -1907,7 +7131,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>0.61625599861144997</v>
@@ -1918,7 +7142,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1600</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0.76941118240356399</v>
@@ -1929,7 +7153,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1700</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>0.70564579963684004</v>
@@ -1940,7 +7164,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1800</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>0.83785519599914504</v>
@@ -1951,7 +7175,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1900</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0.83973259925842203</v>
@@ -1962,13 +7186,1724 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0.9605096817016</v>
       </c>
       <c r="C21" s="1">
         <v>2.37778115272521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E2AE2F-06E4-E049-9AD7-46B25205C134}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF743A4-C0CA-0746-BAE1-3AB5DF80283C}">
+  <dimension ref="A1:G119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.3869571685790993E-2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.3218784332275305E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.0190200805664E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.1803627014160097E-2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.0300207138061501E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.9645795822143501E-2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.0204601287841698E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.10268063545227001</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.7733583450317302E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.8012342453002901E-2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.65693855285644E-2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.9707832336425702E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.8716249465942297E-2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.06008052825927E-2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.7973051071166903E-2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.81156253814697E-2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.7112026214599598E-2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.8132791519164999E-2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.8909034729003898E-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.8014011383056598E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.80451965332031E-2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.72038173675537E-2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.8905410766601503E-2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.8013582229614197E-2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.8202600479125899E-2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.7462978363037098E-2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.7208967208862302E-2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.6858396530151303E-2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6.4511585235595706E-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.7930612564086902E-2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.8818197250366203E-2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.8328771591186497E-2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.0976171493530198E-2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.97187519073486E-2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.7670164108276301E-2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.9112596511840802E-2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.7571983337402301E-2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.7824611663818297E-2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.9202957153320301E-2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.8393812179565401E-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.85800170898437E-2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.0466146469116203E-2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.66770076751709E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.7821607589721602E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.7697391510009702E-2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.8266592025756798E-2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.8052015304565399E-2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.7008600234985302E-2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.80940723419189E-2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6.1187410354614197E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5.6991815567016602E-2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.6704568862915E-2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.6566190719604399E-2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.8568572998046797E-2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.6243181228637598E-2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.7135248184204103E-2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.8059215545654297E-2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.6447362899780203E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.7489967346191398E-2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5.7962226867675701E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7.4536800384521401E-2</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.6851768493652297E-2</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.6577062606811501E-2</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.6772232055664E-2</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5.6937408447265601E-2</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7.3780822753906197E-2</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5.8767747879028297E-2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5.8611440658569297E-2</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5.6736373901367099E-2</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>138</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.6162405014037999E-2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5.7339954376220699E-2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>142</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5.68049430847168E-2</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>144</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.7609844207763598E-2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>146</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5.7858991622924801E-2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>148</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.9391202926635698E-2</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>150</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.8016586303710899E-2</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5.69029331207275E-2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.74784278869628E-2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5.5932950973510698E-2</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5.5521821975707999E-2</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>160</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5.6231355667114201E-2</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5.6167364120483398E-2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>164</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5.7709217071533203E-2</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>166</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5.8015584945678697E-2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>168</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5.7008647918701097E-2</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>170</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5.6610441207885699E-2</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>172</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5.7704830169677701E-2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>174</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5.7939004898071203E-2</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>176</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5.97803592681884E-2</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>178</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.5740642547607397E-2</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>180</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5.6495189666747998E-2</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>182</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5.79027652740478E-2</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>184</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5.9363985061645502E-2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>186</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5.7941627502441397E-2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>188</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5.62039852142334E-2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>190</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5.5509614944457997E-2</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>192</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5.7617616653442297E-2</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>194</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5.6353998184204099E-2</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>196</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5.7659626007080002E-2</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>198</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5.5989408493041903E-2</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.7831382751464801E-2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>202</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.94867706298828E-2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>204</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5.7218599319457997E-2</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>206</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5.6413984298705998E-2</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>208</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5.6063795089721598E-2</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>210</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5.6041765213012698E-2</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>212</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5.5992031097412097E-2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>214</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5.7275962829589799E-2</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>216</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5.61123847961425E-2</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>218</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5.6416368484497E-2</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>220</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5.7441568374633697E-2</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>222</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5.6122827529907202E-2</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>224</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5.7156610488891597E-2</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>226</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6.3987779617309504E-2</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>228</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5.7284641265869102E-2</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>230</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5.8221578598022398E-2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>232</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5.5915212631225501E-2</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>234</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5.9080410003662098E-2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
